--- a/2.xlsx
+++ b/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\02 Example 2 - Cleaning Dates Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B45E0D-1557-41AB-8DCB-4E727AD55003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F2F1F4-0843-41AF-AE03-B97855A2BCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="27195" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Data'!$C$5:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,7 +310,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,37 +591,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -638,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -652,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -666,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -680,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -694,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -708,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -722,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -736,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -750,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>10</v>
       </c>
@@ -764,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>11</v>
       </c>
@@ -778,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -792,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -806,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -820,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -834,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -848,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>17</v>
       </c>
@@ -862,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>18</v>
       </c>
@@ -876,7 +887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>19</v>
       </c>
@@ -890,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>20</v>
       </c>
@@ -904,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>21</v>
       </c>
@@ -918,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>22</v>
       </c>
@@ -932,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>23</v>
       </c>
@@ -946,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>24</v>
       </c>
@@ -960,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>25</v>
       </c>
@@ -974,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>26</v>
       </c>
@@ -988,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>27</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>28</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>29</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>30</v>
       </c>

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F2F1F4-0843-41AF-AE03-B97855A2BCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F74951-6F43-4A7F-A075-A02946443990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="600" windowWidth="27195" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Row</t>
   </si>
@@ -174,12 +174,18 @@
   </si>
   <si>
     <t>Dates Cleaning using ChatGPT</t>
+  </si>
+  <si>
+    <t>Data (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +314,7 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -589,10 +596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,26 +609,27 @@
     <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="23" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,8 +642,11 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -648,8 +659,11 @@
       <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -662,8 +676,11 @@
       <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -676,8 +693,11 @@
       <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -690,8 +710,11 @@
       <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -704,8 +727,11 @@
       <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -718,8 +744,11 @@
       <c r="F11" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="10">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -732,8 +761,11 @@
       <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>8</v>
       </c>
@@ -746,8 +778,11 @@
       <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="10">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>9</v>
       </c>
@@ -760,8 +795,11 @@
       <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="10">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>10</v>
       </c>
@@ -774,8 +812,11 @@
       <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>11</v>
       </c>
@@ -788,8 +829,11 @@
       <c r="F16" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -802,8 +846,11 @@
       <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -816,8 +863,11 @@
       <c r="F18" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -830,8 +880,11 @@
       <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -844,8 +897,11 @@
       <c r="F20" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -858,8 +914,11 @@
       <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>17</v>
       </c>
@@ -872,8 +931,11 @@
       <c r="F22" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="10">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>18</v>
       </c>
@@ -886,8 +948,11 @@
       <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="10">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>19</v>
       </c>
@@ -900,8 +965,11 @@
       <c r="F24" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="10">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>20</v>
       </c>
@@ -914,8 +982,11 @@
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="10">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>21</v>
       </c>
@@ -928,8 +999,11 @@
       <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="10">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>22</v>
       </c>
@@ -942,8 +1016,11 @@
       <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>23</v>
       </c>
@@ -956,8 +1033,11 @@
       <c r="F28" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>24</v>
       </c>
@@ -970,8 +1050,11 @@
       <c r="F29" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="10">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>25</v>
       </c>
@@ -984,8 +1067,11 @@
       <c r="F30" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="10">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>26</v>
       </c>
@@ -998,8 +1084,11 @@
       <c r="F31" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="10">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>27</v>
       </c>
@@ -1012,8 +1101,11 @@
       <c r="F32" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="10">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>28</v>
       </c>
@@ -1026,8 +1118,11 @@
       <c r="F33" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="10">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>29</v>
       </c>
@@ -1040,8 +1135,11 @@
       <c r="F34" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="10">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>30</v>
       </c>
@@ -1053,6 +1151,9 @@
       </c>
       <c r="F35" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="G35" s="10">
+        <v>45168</v>
       </c>
     </row>
   </sheetData>
